--- a/Scenarios_list.xlsx
+++ b/Scenarios_list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noellepatterson/apps/Other/Climate_change_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1F83F6-FE10-2546-AF31-1B4F22C8EE45}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B7883C-F252-B443-823F-5C1FCD6C900A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="940" windowWidth="20320" windowHeight="15400" xr2:uid="{C6ACD654-75F0-344B-8E03-DA769AD3D29B}"/>
+    <workbookView xWindow="1880" yWindow="460" windowWidth="20360" windowHeight="16660" xr2:uid="{C6ACD654-75F0-344B-8E03-DA769AD3D29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>wet season precip (%)</t>
   </si>
@@ -39,9 +39,6 @@
     <t>3 day max (%)</t>
   </si>
   <si>
-    <t>perc_20th</t>
-  </si>
-  <si>
     <t>perc_80th</t>
   </si>
   <si>
@@ -82,13 +79,25 @@
   </si>
   <si>
     <t xml:space="preserve">To be performed (initially) with a baseline scenario: no change in precipitation volume or temperature. </t>
+  </si>
+  <si>
+    <t>all intensity metrics (pair with temp change)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Change intensity metrics one at a time through four levels (baseline plus 4x4 = 1+16 = 17 runs), then baseline plus temp change, then all intensity metrics, then all intensity metrics plus temp change. </t>
+  </si>
+  <si>
+    <t>perc_20th (final)</t>
+  </si>
+  <si>
+    <t>perc_20th (raw)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,32 +451,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E470E9EF-5EE2-ED43-900F-F3C996FAD78A}">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -476,21 +488,24 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C7">
         <v>-3.76</v>
@@ -499,21 +514,24 @@
         <v>-21.25</v>
       </c>
       <c r="E7">
+        <v>-39.06</v>
+      </c>
+      <c r="F7">
         <v>0.12188</v>
       </c>
-      <c r="F7">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
+      <c r="G7">
+        <v>0.70440000000000003</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0.84</v>
@@ -522,21 +540,24 @@
         <v>-1.7</v>
       </c>
       <c r="E8">
+        <v>-3.3170000000000002</v>
+      </c>
+      <c r="F8">
         <v>0.19336600000000001</v>
       </c>
-      <c r="F8">
-        <v>0.25908000000000003</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
+      <c r="G8">
+        <v>0.85907800000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>4.46</v>
@@ -545,21 +566,21 @@
         <v>10.65</v>
       </c>
       <c r="E9">
+        <v>32.6</v>
+      </c>
+      <c r="F9">
         <v>0.26519999999999999</v>
       </c>
-      <c r="F9">
-        <v>0.4929</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
       <c r="H9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>2.98</v>
@@ -568,21 +589,21 @@
         <v>-14.04</v>
       </c>
       <c r="E10">
+        <v>-54.76</v>
+      </c>
+      <c r="F10">
         <v>9.0480000000000005E-2</v>
       </c>
-      <c r="F10">
-        <v>9.1620000000000021E-2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
       <c r="H10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>5.56</v>
@@ -591,21 +612,24 @@
         <v>14.35</v>
       </c>
       <c r="E11">
+        <v>-0.42099999999999949</v>
+      </c>
+      <c r="F11">
         <v>0.199158</v>
       </c>
-      <c r="F11">
-        <v>0.30642000000000003</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
+      <c r="G11">
+        <v>0.90642</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>12.1</v>
@@ -614,16 +638,52 @@
         <v>70.349999999999994</v>
       </c>
       <c r="E12">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="F12">
         <v>0.28095999999999999</v>
       </c>
-      <c r="F12">
-        <v>0.54089999999999994</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
+      <c r="G12">
+        <v>1.1408999999999998</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>5.56</v>
+      </c>
+      <c r="D14">
+        <v>14.35</v>
+      </c>
+      <c r="F14">
+        <v>0.199158</v>
+      </c>
+      <c r="G14">
+        <v>0.90642</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios_list.xlsx
+++ b/Scenarios_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noellepatterson/apps/Other/Climate_change_research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B7883C-F252-B443-823F-5C1FCD6C900A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB24048-3231-C64F-A517-6C7CE0A58420}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="460" windowWidth="20360" windowHeight="16660" xr2:uid="{C6ACD654-75F0-344B-8E03-DA769AD3D29B}"/>
+    <workbookView xWindow="9580" yWindow="1860" windowWidth="19220" windowHeight="13160" xr2:uid="{C6ACD654-75F0-344B-8E03-DA769AD3D29B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>wet season precip (%)</t>
   </si>
@@ -97,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +109,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E470E9EF-5EE2-ED43-900F-F3C996FAD78A}">
   <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,11 +530,11 @@
       <c r="G7">
         <v>0.70440000000000003</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>11</v>
+      <c r="H7">
+        <v>-0.26355567099999999</v>
+      </c>
+      <c r="I7">
+        <v>-0.138900206</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -548,11 +556,11 @@
       <c r="G8">
         <v>0.85907800000000001</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
+      <c r="H8">
+        <v>3.7709018888888897E-2</v>
+      </c>
+      <c r="I8">
+        <v>5.2831841111111118E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -571,11 +579,11 @@
       <c r="F9">
         <v>0.26519999999999999</v>
       </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
+      <c r="H9">
+        <v>-8.1952915000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.222177229</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -594,11 +602,11 @@
       <c r="F10">
         <v>9.0480000000000005E-2</v>
       </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>11</v>
+      <c r="H10">
+        <v>0.26355567099999999</v>
+      </c>
+      <c r="I10">
+        <v>-0.138900206</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -620,11 +628,11 @@
       <c r="G11">
         <v>0.90642</v>
       </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>11</v>
+      <c r="H11">
+        <v>3.7709018888888897E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>5.2831840999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -646,11 +654,11 @@
       <c r="G12">
         <v>1.1408999999999998</v>
       </c>
-      <c r="H12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
-        <v>11</v>
+      <c r="H12">
+        <v>8.1952915000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.222177229</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
